--- a/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_v0.1_gene_ranking.xlsx
+++ b/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_v0.1_gene_ranking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,12 +486,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Gm14023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Gm17092</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,17 +506,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Gmpr2</t>
+          <t>Tsix</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Il1r2</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Alpk2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Tmem132a</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Nr3c1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Tbc1d8</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Nr4a3</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -581,32 +581,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Gm26759</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Tcof1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Cap1</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Cd74</t>
         </is>
       </c>
     </row>
@@ -616,42 +616,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>6530413G14Rik</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Wdr1</t>
         </is>
       </c>
     </row>
@@ -661,42 +661,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Gm28592</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Ifngr1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Htr7</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Rel</t>
         </is>
       </c>
     </row>
@@ -706,42 +706,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Ccdc167</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Skil</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Actr3</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Gm26759</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Gpcpd1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>H2-Aa</t>
         </is>
       </c>
     </row>
@@ -751,32 +751,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Nr3c1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Gm10684</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Cyld</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Junos</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Alpk2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hnrnpa3</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Gm14023</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Gm17092</t>
         </is>
       </c>
     </row>
@@ -841,42 +841,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Gdi2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>6530413G14Rik</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Plek</t>
         </is>
       </c>
     </row>
@@ -886,42 +886,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gm9888</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Tsix</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Nfkb2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Clec1a</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Ccdc167</t>
         </is>
       </c>
     </row>
@@ -931,42 +931,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Dpp4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Gm28592</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Actr3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Fth1</t>
         </is>
       </c>
     </row>
@@ -976,42 +976,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Skil</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>H2-Ab1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Gdi2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Arap2</t>
         </is>
       </c>
     </row>
@@ -1021,42 +1021,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Alpk2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Tcof1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Rnaseh2a</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Gmpr2</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Ccdc167</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>6530413G14Rik</t>
         </is>
       </c>
     </row>
@@ -1066,42 +1066,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>Tbc1d8</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Adam8</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Sf3b1</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Alpk2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Gm9888</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Gm15396</t>
         </is>
       </c>
     </row>
@@ -1111,42 +1111,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Akap13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Arhgap18</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Cd83</t>
         </is>
       </c>
     </row>
@@ -1161,37 +1161,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Junos</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>H2-Ab1</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Gm26728</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Gdi2</t>
         </is>
       </c>
     </row>
@@ -1201,42 +1201,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Nfkb2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>Ccdc167</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Rora</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Gm11175</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>Wdfy4</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Rgs1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Gm11175</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Nr4a3</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Dpp4</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Vps37b</t>
         </is>
       </c>
     </row>
@@ -1246,32 +1246,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Actb</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>H2-Ab1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Adam8</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Tmem132a</t>
         </is>
       </c>
     </row>
@@ -1291,17 +1291,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Il1r2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Nfkb2</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Med7</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1311,22 +1311,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Csf2rb</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Rgs1</t>
         </is>
       </c>
     </row>
@@ -1341,37 +1341,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Gdi2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Gm14023</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Eif3a</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Lrrc18</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Gm26759</t>
         </is>
       </c>
     </row>
@@ -1381,42 +1381,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Gm26728</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Ifngr1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Junos</t>
+          <t>Akap13</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Actb</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>H2-Ab1</t>
         </is>
       </c>
     </row>
@@ -1426,42 +1426,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Eif3a</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Sf3b1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Gm15396</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Gm47566</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Akap13</t>
         </is>
       </c>
     </row>
@@ -1471,17 +1471,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1491,22 +1491,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Tsix</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Lrrc18</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>H2-Aa</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Tcof1</t>
         </is>
       </c>
     </row>
@@ -1516,42 +1516,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Htr7</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hnrnpa3</t>
+          <t>Gm11175</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>Btla</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>Gm47566</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Nedd9</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Csf2rb</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Gm26728</t>
         </is>
       </c>
     </row>
@@ -1561,42 +1561,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Tcp1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Gm26728</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Lrrk2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Gm12999</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tmem189</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Fth1</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Itga4</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>Mki67</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Actb</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Itk</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Gm20496</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Tsix</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Wdfy4</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Eif3a</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Adgrg6</t>
         </is>
       </c>
     </row>
@@ -1606,42 +1606,42 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>H2-Aa</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hnrnpa3</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Gm20496</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Sf3b1</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Gm9888</t>
+          <t>Tmem189</t>
         </is>
       </c>
     </row>
@@ -1651,27 +1651,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Actb</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Wdr1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Gm11175</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Adgrg6</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1706,32 +1706,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>Gm47566</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>Dpp4</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Tmem189</t>
-        </is>
-      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Gm20496</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Gm17092</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Csf2rb</t>
         </is>
       </c>
     </row>
@@ -1741,42 +1741,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hnrnpa3</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Gmpr2</t>
+          <t>Tsix</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Gm9888</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Rnaseh2a</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Junos</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Tmem116</t>
         </is>
       </c>
     </row>
@@ -1786,42 +1786,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Tmem132a</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Gm28592</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Skil</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Adam8</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Rnaseh2a</t>
         </is>
       </c>
     </row>
@@ -1831,12 +1831,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Wdr1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Rnaseh2a</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1846,27 +1846,27 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Dpp4</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Mki67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Gm47566</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Samsn1</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Ifngr1</t>
         </is>
       </c>
     </row>
@@ -1876,42 +1876,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Gm11175</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Ifngr1</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Actr3</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Kpna4</t>
         </is>
       </c>
     </row>
@@ -1921,42 +1921,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>H2-Ab1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Arhgap18</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Med7</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>H2-Ab1</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Alpk2</t>
         </is>
       </c>
     </row>
@@ -1966,42 +1966,42 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>Ly75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Rgs1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Tnfaip3</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>Med7</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Itga4</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Ly75</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Gm10684</t>
-        </is>
-      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Btla</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Gpcpd1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2021,32 +2021,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Junos</t>
+          <t>Med7</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Gm20496</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Tcp1</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Skil</t>
         </is>
       </c>
     </row>
@@ -2061,37 +2061,37 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>Csf2rb</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tmem116</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Ikzf3</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>Tcp1</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Il1b</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Vav3</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Cd83</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>6530413G14Rik</t>
         </is>
       </c>
     </row>
@@ -2101,42 +2101,42 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Med7</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>Tcp1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>H2-Aa</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Actb</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Adgrg6</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Wdr1</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>Med7</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Hnrnpa3</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Gm26759</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Eif3a</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Dpp4</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Dpp4</t>
         </is>
       </c>
     </row>
@@ -2146,42 +2146,42 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Gm17092</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Tcp1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Gm26728</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Tcp1</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gm9888</t>
+          <t>Tcp1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Gm15396</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Malat1</t>
         </is>
       </c>
     </row>
@@ -2191,42 +2191,42 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Gm26759</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>Rnaseh2a</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Htr7</t>
         </is>
       </c>
     </row>
@@ -2236,42 +2236,42 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Clec1a</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Sf3b1</t>
         </is>
       </c>
     </row>
@@ -2281,42 +2281,42 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Lrrc18</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>H2-Aa</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>Nfkb2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Sgms1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Ly75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Ly75</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Gm11175</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>Havcr2</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Eif3a</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Cst3</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Tmem116</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Nfkb2</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Hnrnpa3</t>
         </is>
       </c>
     </row>
@@ -2326,42 +2326,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>Lrrc18</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Wdr1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Akap13</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Gm36043</t>
         </is>
       </c>
     </row>
@@ -2371,42 +2371,42 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Akap13</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>Samsn1</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Gm26759</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Cd74</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Gmpr2</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>H2-Eb1</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Gm14023</t>
         </is>
       </c>
     </row>
@@ -2416,42 +2416,42 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>Btla</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Nr4a3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Akap13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Inpp4b</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sgms1</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Atxn1</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
           <t>Gm10684</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Cdk14</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Clec1a</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Inpp4b</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Malat1</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Itk</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Inpp4b</t>
-        </is>
-      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Gm10684</t>
         </is>
       </c>
     </row>
@@ -2461,42 +2461,42 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>Wdfy4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Gm17092</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Ly75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Lrrk2</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Arhgap18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Tmem116</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Malat1</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Adam8</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Malat1</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Med7</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Nabp1</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Skil</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Lrrc18</t>
         </is>
       </c>
     </row>
@@ -2506,42 +2506,42 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Tcof1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Sf3b1</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Eif3a</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Samsn1</t>
         </is>
       </c>
     </row>
@@ -2551,42 +2551,42 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Eif3a</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Htr7</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Ifngr1</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Gm14023</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Eif3a</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Malt1</t>
         </is>
       </c>
     </row>
@@ -2601,37 +2601,37 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>H2-Aa</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Med7</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Dpp4</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Junos</t>
+          <t>Arhgap18</t>
         </is>
       </c>
     </row>
@@ -2641,42 +2641,42 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Cap1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Gm17092</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Actb</t>
         </is>
       </c>
     </row>
@@ -2686,42 +2686,42 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Gm10684</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Gmpr2</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Arhgap18</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Ccdc167</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Sf3b1</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Vav3</t>
         </is>
       </c>
     </row>
@@ -2731,42 +2731,42 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Skil</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Gm15396</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Clec1a</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Gm28592</t>
         </is>
       </c>
     </row>
@@ -2776,42 +2776,42 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Gm26728</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Itga4</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>H2-Eb1</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Hnrnpa3</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Atxn1</t>
         </is>
       </c>
     </row>
@@ -2821,42 +2821,42 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>6530413G14Rik</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Wdr1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Junos</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Nfkb2</t>
         </is>
       </c>
     </row>
@@ -2866,42 +2866,42 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Lrrc18</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Gm12999</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Hnrnpa3</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Gmpr2</t>
+          <t>Cst3</t>
         </is>
       </c>
     </row>
@@ -2911,42 +2911,42 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Actb</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Tbc1d8</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Clec1a</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Gpcpd1</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Dpp4</t>
         </is>
       </c>
     </row>
@@ -2956,42 +2956,42 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Csf2rb</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Tmem132a</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Nfkb2</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Ly75</t>
         </is>
       </c>
     </row>
@@ -3001,42 +3001,42 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Wdr1</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Gm9888</t>
+          <t>Gm28592</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Ikzf3</t>
         </is>
       </c>
     </row>
@@ -3046,42 +3046,42 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Med7</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Gdi2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>Actr3</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Nr3c1</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Csf2rb</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Wdfy4</t>
         </is>
       </c>
     </row>
@@ -3091,42 +3091,42 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Gm10684</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Rnaseh2a</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Adam8</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Arhgap18</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Rora</t>
         </is>
       </c>
     </row>
@@ -3136,42 +3136,42 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Rnaseh2a</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Nr3c1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
+          <t>Rgs1</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Alpk2</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>Rora</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Gm17092</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>4932438H23Rik</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Hspa5</t>
         </is>
       </c>
     </row>
@@ -3181,42 +3181,42 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Gm14023</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Med7</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Skil</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Gpcpd1</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Wdr1</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Gmpr2</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Lrrk2</t>
         </is>
       </c>
     </row>
@@ -3226,42 +3226,42 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Gm9888</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Gm9888</t>
+          <t>Gm28592</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Gpcpd1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Gdi2</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>6530413G14Rik</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
     </row>
@@ -3271,42 +3271,42 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Gm28592</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Tcof1</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Gm20496</t>
         </is>
       </c>
     </row>
@@ -3316,42 +3316,42 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>Ccdc167</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Rora</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4932438H23Rik</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Akap13</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
           <t>Gm36043</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Htr7</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Tmem132a</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Nfkb2</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Itk</t>
-        </is>
-      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Eif3a</t>
         </is>
       </c>
     </row>
@@ -3361,42 +3361,42 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Actr3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Gm12999</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Cap1</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Clec1a</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Inpp4b</t>
         </is>
       </c>
     </row>
@@ -3406,42 +3406,42 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Clec1a</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Gm28592</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Gm11175</t>
         </is>
       </c>
     </row>
@@ -3451,42 +3451,42 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gmpr2</t>
+          <t>Gm11175</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Gm26759</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Gm12999</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
     </row>
@@ -3496,42 +3496,42 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Gm26759</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Gpcpd1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Lrrc18</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Nr3c1</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Itga4</t>
         </is>
       </c>
     </row>
@@ -3541,27 +3541,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Arhgap18</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Csf2rb</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Actr3</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Gm14023</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Adam8</t>
         </is>
       </c>
     </row>
@@ -3586,42 +3586,42 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Junos</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Gm12999</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Alpk2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Eif3a</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Gm17092</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Gm47566</t>
         </is>
       </c>
     </row>
@@ -3631,42 +3631,807 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>Gm47566</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Havcr2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>H2-Ab1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Cdk14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Cap1</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Cblb</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Nr4a3</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Ets1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Ifngr1</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Dpp4</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Il1b</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Itga4</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Adam19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Rnaseh2a</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Tcof1</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Cdk14</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Ets1</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Actr3</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Tcof1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Nr4a3</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>H2-Aa</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Nfkb2</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Ets1</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Itk</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Inpp4b</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Adam8</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Mki67</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Arap2</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Fth1</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Cap1</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Ifngr1</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Gm12999</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Gm12999</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Emb</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Fth1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Lrrc18</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Gm15396</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>H2-Aa</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
           <t>Tsix</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Clec1a</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Clec1a</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Tmem116</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Dpp4</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Akap13</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Tbc1d8</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Tbc1d8</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Itk</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Tcp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Sf3b1</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Itk</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Sf3b1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Gpcpd1</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Gm26728</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Adam19</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Mki67</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Emb</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Nr3c1</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Gm20496</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6530413G14Rik</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Nabp1</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Cyld</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Cdk14</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Emb</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Nr3c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Vps37b</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Vps37b</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Adam8</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Adam19</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Il1r2</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Cyld</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Nr3c1</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Gpcpd1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Itk</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tsix</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Gm36043</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>4932438H23Rik</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Htr7</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Actb</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Btla</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Sgms1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Lrrk2</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Adam19</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Gm20496</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Cd74</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Cd83</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Cst3</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Rora</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>4932438H23Rik</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Adam8</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Ifngr1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Samsn1</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Nfkb2</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kpna4</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>4932438H23Rik</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>6530413G14Rik</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Tbc1d8</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Cblb</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4932438H23Rik</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Gm14023</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Kpna4</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Gdi2</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Malat1</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Samsn1</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Cap1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Cap1</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Cap1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Gm47566</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Ccdc167</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Gm17092</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Gm26728</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Alpk2</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Nabp1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Hspa5</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>Arhgap18</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>Plek</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Htr7</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Gm10684</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Skil</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Gm26759</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Adam19</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Csf2rb</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Tbc1d8</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Gm15396</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Cyld</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Rel</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Gdi2</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Tmem132a</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Tsix</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Gm20496</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Gm47566</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Tmem132a</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>Actb</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kpna4</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Cyld</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Ccdc167</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Hspa5</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Arap2</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Actr3</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Tsix</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Sgms1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Gm10684</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Tbc1d8</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>H2-Ab1</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Htr7</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
         <is>
           <t>Tnfaip3</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Tsix</t>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Cblb</t>
         </is>
       </c>
     </row>

--- a/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_v0.1_gene_ranking.xlsx
+++ b/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_v0.1_gene_ranking.xlsx
@@ -2031,7 +2031,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Gm20496</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Rnaseh2a</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Gm15396</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">

--- a/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_v0.1_gene_ranking.xlsx
+++ b/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_v0.1_gene_ranking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,22 +481,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Abca1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -506,17 +506,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Abca1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Plet1os</t>
         </is>
       </c>
     </row>
@@ -526,42 +526,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Pla2g7</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Plet1</t>
         </is>
       </c>
     </row>
@@ -571,42 +571,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Ccser2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Csf1r</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Tspan13</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -626,32 +626,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Cd74</t>
         </is>
       </c>
     </row>
@@ -661,37 +661,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,42 +706,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Mdh2</t>
         </is>
       </c>
     </row>
@@ -751,42 +751,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Plxdc2</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Map3k14</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Odc1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cd44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Inpp4b</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Alpk2</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Ikzf3</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Fosb</t>
         </is>
       </c>
     </row>
@@ -841,42 +841,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Rasgef1b</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Rora</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Rab7b</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vps37b</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cd44</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Malat1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>Rgs1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tmem116</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Cd83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Tnfaip3</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>6530413G14Rik</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Sgms1</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Plek</t>
         </is>
       </c>
     </row>
@@ -886,42 +886,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Csf1r</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Plek</t>
         </is>
       </c>
     </row>
@@ -931,42 +931,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Plxdc2</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Samhd1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Irf4</t>
         </is>
       </c>
     </row>
@@ -976,42 +976,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Etv3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Clec4n</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Nabp1</t>
         </is>
       </c>
     </row>
@@ -1021,42 +1021,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Clec4n</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Hmgb2</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1081,27 +1081,27 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Rasgef1b</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Fth1</t>
         </is>
       </c>
     </row>
@@ -1111,42 +1111,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Cd44</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Tes</t>
         </is>
       </c>
     </row>
@@ -1156,42 +1156,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Ikzf3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tnfrsf9</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tnfrsf9</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Csf2rb2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Havcr2</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>Nr4a3</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Plek</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Vps37b</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>H2-Ab1</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Gm26728</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Gdi2</t>
         </is>
       </c>
     </row>
@@ -1201,42 +1201,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Havcr2</t>
         </is>
       </c>
     </row>
@@ -1246,42 +1246,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Spon1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Etv3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Dennd4a</t>
         </is>
       </c>
     </row>
@@ -1291,42 +1291,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>Fth1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Rabgap1l</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>Il1b</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Csf2rb</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Rgs1</t>
         </is>
       </c>
     </row>
@@ -1336,42 +1336,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Malt1</t>
         </is>
       </c>
     </row>
@@ -1381,42 +1381,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
     </row>
@@ -1426,42 +1426,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Pla2g7</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Ccser2</t>
         </is>
       </c>
     </row>
@@ -1471,42 +1471,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Spon1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Rasgef1b</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Odc1</t>
         </is>
       </c>
     </row>
@@ -1516,42 +1516,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Pla2g7</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Pola1</t>
         </is>
       </c>
     </row>
@@ -1561,42 +1561,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Malat1</t>
         </is>
       </c>
     </row>
@@ -1606,42 +1606,42 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Ptgs2</t>
         </is>
       </c>
     </row>
@@ -1651,42 +1651,42 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Kpna4</t>
         </is>
       </c>
     </row>
@@ -1696,42 +1696,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Samhd1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Hspa5</t>
         </is>
       </c>
     </row>
@@ -1741,42 +1741,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Spon1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Cd274</t>
         </is>
       </c>
     </row>
@@ -1786,42 +1786,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Samhd1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Vps37b</t>
         </is>
       </c>
     </row>
@@ -1831,42 +1831,42 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Adam23</t>
         </is>
       </c>
     </row>
@@ -1876,42 +1876,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Cxcl2</t>
         </is>
       </c>
     </row>
@@ -1921,42 +1921,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Tmem189</t>
         </is>
       </c>
     </row>
@@ -1966,17 +1966,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1986,22 +1986,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Samhd1</t>
         </is>
       </c>
     </row>
@@ -2011,42 +2011,42 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>Cd74</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Hspa5</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Malt1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Samsn1</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Atad2</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>Atxn1</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Tmem189</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Med7</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Tmem116</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Tcp1</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Tmem116</t>
-        </is>
-      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Gclc</t>
         </is>
       </c>
     </row>
@@ -2056,42 +2056,42 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Clec4n</t>
         </is>
       </c>
     </row>
@@ -2101,42 +2101,42 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Ccser2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Rasgef1b</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Cep85l</t>
         </is>
       </c>
     </row>
@@ -2146,42 +2146,42 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Top2a</t>
         </is>
       </c>
     </row>
@@ -2191,42 +2191,42 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Etv3</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2246,32 +2246,32 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Ccr7</t>
         </is>
       </c>
     </row>
@@ -2281,22 +2281,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2306,17 +2306,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Thbs1</t>
         </is>
       </c>
     </row>
@@ -2326,42 +2326,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Ccser2</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Abcb1a</t>
         </is>
       </c>
     </row>
@@ -2371,42 +2371,42 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Clec4n</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Spon1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Cd83</t>
         </is>
       </c>
     </row>
@@ -2416,42 +2416,42 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Apol7c</t>
         </is>
       </c>
     </row>
@@ -2461,42 +2461,42 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Cst3</t>
         </is>
       </c>
     </row>
@@ -2506,42 +2506,42 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
     </row>
@@ -2551,42 +2551,42 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Spon1</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
     </row>
@@ -2596,42 +2596,42 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Gm36043</t>
         </is>
       </c>
     </row>
@@ -2641,42 +2641,42 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Ctla4</t>
         </is>
       </c>
     </row>
@@ -2686,42 +2686,42 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Sema7a</t>
         </is>
       </c>
     </row>
@@ -2731,32 +2731,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Cd44</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Samhd1</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Tmem116</t>
         </is>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2786,32 +2786,32 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Tpd52</t>
         </is>
       </c>
     </row>
@@ -2821,42 +2821,42 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
     </row>
@@ -2866,42 +2866,42 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Lima1</t>
         </is>
       </c>
     </row>
@@ -2911,42 +2911,42 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Etv3</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Mmp12</t>
         </is>
       </c>
     </row>
@@ -2956,42 +2956,42 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Adgrg6</t>
         </is>
       </c>
     </row>
@@ -3001,42 +3001,42 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Icam1</t>
         </is>
       </c>
     </row>
@@ -3046,42 +3046,42 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Mki67</t>
         </is>
       </c>
     </row>
@@ -3091,42 +3091,42 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>Cd83</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>Atxn1</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Gm10684</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Clec4n</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Btla</t>
         </is>
       </c>
     </row>
@@ -3136,42 +3136,42 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Mrc1</t>
         </is>
       </c>
     </row>
@@ -3181,42 +3181,42 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Plxdc2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Gm46212</t>
         </is>
       </c>
     </row>
@@ -3226,42 +3226,42 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Cd44</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Tox</t>
         </is>
       </c>
     </row>
@@ -3271,42 +3271,42 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
     </row>
@@ -3316,42 +3316,42 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Etv3</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Ifi205</t>
         </is>
       </c>
     </row>
@@ -3361,42 +3361,42 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Atad2</t>
         </is>
       </c>
     </row>
@@ -3406,17 +3406,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3426,22 +3426,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Diaph3</t>
         </is>
       </c>
     </row>
@@ -3451,42 +3451,42 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Csf1r</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Emb</t>
         </is>
       </c>
     </row>
@@ -3496,42 +3496,42 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Stt3b</t>
         </is>
       </c>
     </row>
@@ -3541,42 +3541,42 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
     </row>
@@ -3586,42 +3586,42 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Pla2g7</t>
         </is>
       </c>
     </row>
@@ -3631,42 +3631,42 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Samhd1</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Wdfy4</t>
         </is>
       </c>
     </row>
@@ -3676,42 +3676,42 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Etv3</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
     </row>
@@ -3721,42 +3721,42 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Gimap4</t>
         </is>
       </c>
     </row>
@@ -3766,42 +3766,42 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>Cxcl2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Mdh2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Rab7b</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Zc3h12c</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Havcr2</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>Inpp4b</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Adam8</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Mki67</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Arap2</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Fth1</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Cap1</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Inpp4b</t>
         </is>
       </c>
     </row>
@@ -3811,42 +3811,42 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Mast4</t>
         </is>
       </c>
     </row>
@@ -3856,42 +3856,42 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Itga4</t>
         </is>
       </c>
     </row>
@@ -3901,42 +3901,42 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Epas1</t>
         </is>
       </c>
     </row>
@@ -3946,42 +3946,42 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Plxdc2</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Gm15511</t>
         </is>
       </c>
     </row>
@@ -3991,42 +3991,42 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Atxn1</t>
         </is>
       </c>
     </row>
@@ -4036,42 +4036,42 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Csf1r</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Spon1</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Tnip3</t>
         </is>
       </c>
     </row>
@@ -4081,42 +4081,42 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
     </row>
@@ -4126,42 +4126,42 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Pla2g7</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Plxdc2</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Ccser2</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Ets1</t>
         </is>
       </c>
     </row>
@@ -4171,32 +4171,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Ccser2</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Smc4</t>
         </is>
       </c>
     </row>
@@ -4216,42 +4216,42 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Csf1r</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Ikzf2</t>
         </is>
       </c>
     </row>
@@ -4261,42 +4261,42 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Rora</t>
         </is>
       </c>
     </row>
@@ -4306,42 +4306,42 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Camk4</t>
         </is>
       </c>
     </row>
@@ -4351,42 +4351,42 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Pla2g7</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Rasgef1b</t>
         </is>
       </c>
     </row>
@@ -4396,42 +4396,582 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
+          <t>Il2ra</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Plet1os</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Gimap4</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Itga4</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Jak2</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Lima1</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Samsn1</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Rel</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Itk</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Ikzf3</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Camk4</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Plet1os</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Ccser2</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
           <t>Cblb</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Etv3</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Mmp12</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Pik3r1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Pola1</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Smc4</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Samhd1</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Etv3</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Atad2</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Nfkbiz</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Plet1os</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Apoe</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Thbs1</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Epas1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Ccr7</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Vps37b</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Tspan13</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Diaph3</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Pik3r1</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Rabgap1l</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Clec4n</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Tspan13</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Ifi205</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Rasgef1b</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Odc1</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Stt3b</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Ly75</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Ikzf3</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Abca1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Itk</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Thbs1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Mast4</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Diaph3</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Jak2</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>1700071M16Rik</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Hells</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Cadm1</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Apoe</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Plxdc2</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Tmem116</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Gm36043</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Gm46212</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Mki67</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Plxdc2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Cd74</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Tnfrsf9</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Apoe</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Rgs1</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Hells</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Irf4</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Irf4</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Ifi207</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Fosb</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Rab7b</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Spon1</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Apol7c</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Myo1e</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Cd83</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Abca1</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Ly75</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Rasgef1b</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Plxdc2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Top2a</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Rel</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Ifi207</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Il2ra</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Myo1e</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Ptpn22</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Odc1</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Thbs1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Mki67</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Samsn1</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Apoe</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Ccser2</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Ptgs2</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Myo1e</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Ifi207</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Map3k14</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Tspan13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Il2ra</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Cep85l</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Tbc1d4</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Cxcl2</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Rab7b</t>
         </is>
       </c>
     </row>
